--- a/notas/IPDO.xlsx
+++ b/notas/IPDO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,56 +9,141 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18795" windowHeight="8115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18795" windowHeight="8115" tabRatio="742" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabela1" sheetId="1" r:id="rId1"/>
+    <sheet name="BalancoResumido" sheetId="1" r:id="rId1"/>
+    <sheet name="BalancoDetalhado" sheetId="2" r:id="rId2"/>
+    <sheet name="Intercambios" sheetId="3" r:id="rId3"/>
+    <sheet name="EnergiaPotencialArmazenada" sheetId="4" r:id="rId4"/>
+    <sheet name="DemandaMaxima" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="38">
+  <si>
+    <t>Programado</t>
+  </si>
+  <si>
+    <t>Verificado</t>
+  </si>
+  <si>
+    <t>Data do Relatório</t>
+  </si>
+  <si>
+    <t>Hidro</t>
+  </si>
+  <si>
+    <t>Itaipu</t>
+  </si>
+  <si>
+    <t>Termo Nuclear</t>
+  </si>
+  <si>
+    <t>Termo Conv</t>
+  </si>
+  <si>
+    <t>Eólica</t>
+  </si>
+  <si>
+    <t>Total SIN</t>
+  </si>
+  <si>
+    <t>Intercâmbio Inter</t>
+  </si>
   <si>
     <t>Carga</t>
   </si>
   <si>
-    <t>Programado</t>
-  </si>
-  <si>
-    <t>Hidro</t>
-  </si>
-  <si>
-    <t>Itaipu</t>
-  </si>
-  <si>
-    <t>Termo Conv</t>
-  </si>
-  <si>
-    <t>Termo Nuclear</t>
-  </si>
-  <si>
-    <t>Eólica</t>
-  </si>
-  <si>
-    <t>Total SIN</t>
-  </si>
-  <si>
-    <t>Intercâmbio Inter</t>
-  </si>
-  <si>
-    <t>Verificado</t>
-  </si>
-  <si>
-    <t>Data do Relatório</t>
+    <t>Sudeste</t>
+  </si>
+  <si>
+    <t>Sul</t>
+  </si>
+  <si>
+    <t>Nordeste</t>
+  </si>
+  <si>
+    <t>Norte</t>
+  </si>
+  <si>
+    <t>Termo</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>50Hz</t>
+  </si>
+  <si>
+    <t>60Hz</t>
+  </si>
+  <si>
+    <t>Intercâmbios</t>
+  </si>
+  <si>
+    <t>norte-imperatriz</t>
+  </si>
+  <si>
+    <t>imperatriz-nordeste</t>
+  </si>
+  <si>
+    <t>itaipu-sudeste</t>
+  </si>
+  <si>
+    <t>sudeste-imperatriz</t>
+  </si>
+  <si>
+    <t>sul-sudeste</t>
+  </si>
+  <si>
+    <t>internacional-sul</t>
+  </si>
+  <si>
+    <t>SIN</t>
+  </si>
+  <si>
+    <t>Carga (MW)</t>
+  </si>
+  <si>
+    <t>hora</t>
+  </si>
+  <si>
+    <t>Recorde</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Falta mapear</t>
+  </si>
+  <si>
+    <t>EAR (MWmês)</t>
+  </si>
+  <si>
+    <t>ENA (MWmed)</t>
+  </si>
+  <si>
+    <t>EAM (MWmês)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,8 +159,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -84,18 +184,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor rgb="FFCC0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -113,16 +243,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -134,7 +264,70 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -149,56 +342,420 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFCC0000"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -495,112 +1052,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Q7"/>
+  <dimension ref="A3:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="I4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="J4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="K4" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="M4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="N4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="O4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="P4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="38" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -608,6 +1149,927 @@
     <mergeCell ref="J3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BK5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="AY5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A5" sqref="A5:XFD35"/>
+      <selection pane="topRight" activeCell="A5" sqref="A5:XFD35"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD35"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" style="6" customWidth="1"/>
+    <col min="2" max="61" width="11.42578125" style="6" customWidth="1"/>
+    <col min="62" max="16384" width="11.42578125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="45"/>
+      <c r="AP3" s="45"/>
+      <c r="AQ3" s="46"/>
+      <c r="AR3" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="45"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="45"/>
+      <c r="BC3" s="45"/>
+      <c r="BD3" s="45"/>
+      <c r="BE3" s="46"/>
+      <c r="BF3" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG3" s="45"/>
+      <c r="BH3" s="45"/>
+      <c r="BI3" s="45"/>
+      <c r="BJ3" s="45"/>
+      <c r="BK3" s="46"/>
+    </row>
+    <row r="4" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="U4" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="V4" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="W4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z4" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB4" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD4" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF4" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG4" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH4" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI4" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ4" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL4" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN4" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP4" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR4" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT4" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU4" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV4" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW4" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX4" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ4" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB4" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD4" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF4" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG4" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="BH4" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="BI4" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="BJ4" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="BK4" s="31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5"/>
+      <c r="AQ5"/>
+      <c r="AR5"/>
+      <c r="AS5"/>
+      <c r="AT5"/>
+      <c r="AU5"/>
+      <c r="AV5"/>
+      <c r="AW5"/>
+      <c r="AX5"/>
+      <c r="AY5"/>
+      <c r="AZ5"/>
+      <c r="BA5"/>
+      <c r="BB5"/>
+      <c r="BC5"/>
+      <c r="BD5"/>
+      <c r="BE5"/>
+      <c r="BF5"/>
+      <c r="BG5"/>
+      <c r="BH5"/>
+      <c r="BI5"/>
+      <c r="BJ5"/>
+      <c r="BK5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="AR3:BE3"/>
+    <mergeCell ref="B3:O3"/>
+    <mergeCell ref="P3:AC3"/>
+    <mergeCell ref="AD3:AQ3"/>
+    <mergeCell ref="BF3:BK3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="11.42578125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="28" width="11.42578125" style="6" customWidth="1"/>
+    <col min="29" max="30" width="2" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="36" width="11.42578125" style="6" customWidth="1"/>
+    <col min="37" max="38" width="2" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="44" width="11.42578125" style="6" customWidth="1"/>
+    <col min="45" max="46" width="2" style="6" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.42578125" style="6" customWidth="1"/>
+    <col min="48" max="48" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="49" max="52" width="11.42578125" style="6" customWidth="1"/>
+    <col min="53" max="54" width="2" style="6" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="56" max="60" width="11.42578125" style="6" customWidth="1"/>
+    <col min="61" max="61" width="2" style="6" bestFit="1" customWidth="1"/>
+    <col min="62" max="69" width="11.42578125" style="6" customWidth="1"/>
+    <col min="70" max="70" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="71" max="76" width="11.42578125" style="6" customWidth="1"/>
+    <col min="77" max="77" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="2" style="6" bestFit="1" customWidth="1"/>
+    <col min="79" max="84" width="11.42578125" style="6" customWidth="1"/>
+    <col min="85" max="86" width="2" style="6" bestFit="1" customWidth="1"/>
+    <col min="87" max="92" width="11.42578125" style="6" customWidth="1"/>
+    <col min="93" max="94" width="2" style="6" bestFit="1" customWidth="1"/>
+    <col min="95" max="100" width="11.42578125" style="6" customWidth="1"/>
+    <col min="101" max="102" width="2" style="6" bestFit="1" customWidth="1"/>
+    <col min="103" max="108" width="11.42578125" style="6" customWidth="1"/>
+    <col min="109" max="110" width="2" style="6" bestFit="1" customWidth="1"/>
+    <col min="111" max="116" width="11.42578125" style="6" customWidth="1"/>
+    <col min="117" max="117" width="2" style="6" bestFit="1" customWidth="1"/>
+    <col min="118" max="125" width="11.42578125" style="6" customWidth="1"/>
+    <col min="126" max="126" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="127" max="132" width="11.42578125" style="6" customWidth="1"/>
+    <col min="133" max="133" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="2" style="6" bestFit="1" customWidth="1"/>
+    <col min="135" max="140" width="11.42578125" style="6" customWidth="1"/>
+    <col min="141" max="142" width="2" style="6" bestFit="1" customWidth="1"/>
+    <col min="143" max="145" width="11.42578125" style="6" customWidth="1"/>
+    <col min="146" max="146" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="147" max="148" width="11.42578125" style="6" customWidth="1"/>
+    <col min="149" max="150" width="2" style="6" bestFit="1" customWidth="1"/>
+    <col min="151" max="152" width="11.42578125" style="6" customWidth="1"/>
+    <col min="153" max="153" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="154" max="156" width="11.42578125" style="6" customWidth="1"/>
+    <col min="157" max="158" width="2" style="6" bestFit="1" customWidth="1"/>
+    <col min="159" max="164" width="11.42578125" style="6" customWidth="1"/>
+    <col min="165" max="166" width="2" style="6" bestFit="1" customWidth="1"/>
+    <col min="167" max="172" width="11.42578125" style="6" customWidth="1"/>
+    <col min="173" max="173" width="2" style="6" bestFit="1" customWidth="1"/>
+    <col min="174" max="243" width="11.42578125" style="6" customWidth="1"/>
+    <col min="244" max="244" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="245" max="250" width="11.42578125" style="6" customWidth="1"/>
+    <col min="251" max="251" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="252" max="341" width="11.42578125" style="6" customWidth="1"/>
+    <col min="342" max="342" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="343" max="348" width="11.42578125" style="6" customWidth="1"/>
+    <col min="349" max="349" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="350" max="374" width="11.42578125" style="6" customWidth="1"/>
+    <col min="375" max="16384" width="11.42578125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:M3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="16" style="6" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="6" customWidth="1"/>
+    <col min="12" max="13" width="15.7109375" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="48"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="49"/>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>42532</v>
+      </c>
+      <c r="B5" s="9">
+        <v>13320</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="D5" s="27">
+        <v>17791</v>
+      </c>
+      <c r="E5" s="10">
+        <v>41676</v>
+      </c>
+      <c r="F5" s="9">
+        <v>39442</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="H5" s="27">
+        <v>51894</v>
+      </c>
+      <c r="I5" s="10">
+        <v>42025</v>
+      </c>
+      <c r="J5" s="27">
+        <v>5648</v>
+      </c>
+      <c r="K5" s="11">
+        <v>1.7361111111111108E-2</v>
+      </c>
+      <c r="L5" s="27">
+        <v>6492</v>
+      </c>
+      <c r="M5" s="7">
+        <v>42298</v>
+      </c>
+      <c r="N5" s="27">
+        <v>11542</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="P5" s="27">
+        <v>12473</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>42341</v>
+      </c>
+      <c r="R5" s="9">
+        <v>69388</v>
+      </c>
+      <c r="S5" s="11">
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="T5" s="27">
+        <v>85708</v>
+      </c>
+      <c r="U5" s="10">
+        <v>41675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="F3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>